--- a/data/statistical/filled_NaN_xlsx/上海市_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/上海市_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>53.2</v>
       </c>
       <c r="E2">
-        <v>11295.73035901785</v>
+        <v>11295.73035907745</v>
       </c>
       <c r="F2">
         <v>10464</v>
@@ -609,85 +609,85 @@
         <v>-0.54</v>
       </c>
       <c r="H2">
-        <v>82.08948976091257</v>
+        <v>84.38213586578129</v>
       </c>
       <c r="I2">
-        <v>4.722272367304413</v>
+        <v>4.722272367378537</v>
       </c>
       <c r="J2">
         <v>144.3570736423135</v>
       </c>
       <c r="K2">
-        <v>29.62205306778196</v>
+        <v>29.62205306685064</v>
       </c>
       <c r="L2">
-        <v>1.139559319875843</v>
+        <v>1.139559319859472</v>
       </c>
       <c r="M2">
-        <v>77.66295455815271</v>
+        <v>77.66295455489308</v>
       </c>
       <c r="N2">
-        <v>320.4333333550021</v>
+        <v>320.4333333354443</v>
       </c>
       <c r="O2">
-        <v>26.65585784381256</v>
+        <v>26.6558578372933</v>
       </c>
       <c r="P2">
-        <v>2550.233384121376</v>
+        <v>2551.874628962353</v>
       </c>
       <c r="Q2">
-        <v>86.42063725495973</v>
+        <v>86.42063725505795</v>
       </c>
       <c r="R2">
-        <v>31.67340040812269</v>
+        <v>31.67340039252304</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-5988.940612077713</v>
       </c>
       <c r="T2">
-        <v>120648.6466394476</v>
+        <v>191770.9281512096</v>
       </c>
       <c r="U2">
-        <v>1.117868131859382</v>
+        <v>1.117868131849377</v>
       </c>
       <c r="V2">
-        <v>72.20608875316975</v>
+        <v>72.2060887526095</v>
       </c>
       <c r="W2">
-        <v>2.899208795279264</v>
+        <v>2.899208792950958</v>
       </c>
       <c r="X2">
-        <v>30610.44853234291</v>
+        <v>30610.44853496552</v>
       </c>
       <c r="Y2">
-        <v>87.87649997323751</v>
+        <v>87.87649997440167</v>
       </c>
       <c r="Z2">
-        <v>11144.5049021244</v>
+        <v>11144.50490003824</v>
       </c>
       <c r="AA2">
-        <v>738.3356645070016</v>
+        <v>-1.60489508532919</v>
       </c>
       <c r="AB2">
-        <v>2438656.328979492</v>
+        <v>1848317.938079834</v>
       </c>
       <c r="AC2">
-        <v>3912864.990493774</v>
+        <v>3382793.331481934</v>
       </c>
       <c r="AD2">
-        <v>11853.63112390041</v>
+        <v>12905.30768847466</v>
       </c>
       <c r="AE2">
-        <v>67374.30517262097</v>
+        <v>325877.3490738869</v>
       </c>
       <c r="AF2">
-        <v>19381.19049211224</v>
+        <v>281799.6265325546</v>
       </c>
       <c r="AG2">
-        <v>60207.82130033582</v>
+        <v>402412.64336586</v>
       </c>
       <c r="AH2">
-        <v>51960.03946509714</v>
+        <v>-1528777.037750244</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>-1.35</v>
       </c>
       <c r="H3">
-        <v>81.02207418560444</v>
+        <v>96.21027189490047</v>
       </c>
       <c r="I3">
         <v>4.9</v>
       </c>
       <c r="J3">
-        <v>144.47447796911</v>
+        <v>144.4744779746979</v>
       </c>
       <c r="K3">
         <v>28.6814166827253</v>
@@ -743,13 +743,13 @@
         <v>88.59999999999999</v>
       </c>
       <c r="R3">
-        <v>26.93799019255675</v>
+        <v>26.93799017812125</v>
       </c>
       <c r="S3">
         <v>82317.2</v>
       </c>
       <c r="T3">
-        <v>175491.854784847</v>
+        <v>200680.4212292051</v>
       </c>
       <c r="U3">
         <v>1.27</v>
@@ -764,34 +764,34 @@
         <v>17076</v>
       </c>
       <c r="Y3">
-        <v>82.34549997956492</v>
+        <v>82.34549998119473</v>
       </c>
       <c r="Z3">
-        <v>9239.161764860153</v>
+        <v>9239.161763012409</v>
       </c>
       <c r="AA3">
-        <v>665.0839162338525</v>
+        <v>25.05944057554007</v>
       </c>
       <c r="AB3">
-        <v>2133275.843566895</v>
+        <v>1560363.423202515</v>
       </c>
       <c r="AC3">
-        <v>3432818.636856079</v>
+        <v>2864740.224639893</v>
       </c>
       <c r="AD3">
-        <v>9588.718535661697</v>
+        <v>10418.3985979557</v>
       </c>
       <c r="AE3">
-        <v>69104.81315170198</v>
+        <v>298570.3529276848</v>
       </c>
       <c r="AF3">
-        <v>11655.91851166807</v>
+        <v>238688.5650024414</v>
       </c>
       <c r="AG3">
-        <v>9851.509409434055</v>
+        <v>345555.3493385315</v>
       </c>
       <c r="AH3">
-        <v>56661.24625678502</v>
+        <v>-1303699.144683838</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>0.0012</v>
       </c>
       <c r="H4">
-        <v>91.35788660031297</v>
+        <v>87.90359556218307</v>
       </c>
       <c r="I4">
         <v>4.5</v>
       </c>
       <c r="J4">
-        <v>151.0155067071319</v>
+        <v>151.0155067108572</v>
       </c>
       <c r="K4">
         <v>23.6596088360587</v>
@@ -847,7 +847,7 @@
         <v>92.75</v>
       </c>
       <c r="R4">
-        <v>22.76279411534779</v>
+        <v>22.76279410161078</v>
       </c>
       <c r="S4">
         <v>82859.60000000001</v>
@@ -868,34 +868,34 @@
         <v>17179</v>
       </c>
       <c r="Y4">
-        <v>77.72949998499826</v>
+        <v>77.72949998709373</v>
       </c>
       <c r="Z4">
         <v>11308</v>
       </c>
       <c r="AA4">
-        <v>596.8271729536355</v>
+        <v>51.21628372976556</v>
       </c>
       <c r="AB4">
-        <v>1862046.852478027</v>
+        <v>1308613.734832764</v>
       </c>
       <c r="AC4">
-        <v>3002189.379501343</v>
+        <v>2400770.546066284</v>
       </c>
       <c r="AD4">
-        <v>7674.931322216988</v>
+        <v>8237.777219891548</v>
       </c>
       <c r="AE4">
-        <v>34308.35201921254</v>
+        <v>272587.0322566032</v>
       </c>
       <c r="AF4">
-        <v>21262.8850192629</v>
+        <v>199074.5675067902</v>
       </c>
       <c r="AG4">
-        <v>79487.78835665373</v>
+        <v>293457.7875270844</v>
       </c>
       <c r="AH4">
-        <v>57622.92647217316</v>
+        <v>-1091511.483192444</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -924,10 +924,10 @@
         <v>89.09</v>
       </c>
       <c r="I5">
-        <v>4.485252543093793</v>
+        <v>4.485252543122897</v>
       </c>
       <c r="J5">
-        <v>163.9801598470658</v>
+        <v>163.9801598545164</v>
       </c>
       <c r="K5">
         <v>20.9052884729759</v>
@@ -972,34 +972,34 @@
         <v>20445</v>
       </c>
       <c r="Y5">
-        <v>74.02849999023601</v>
+        <v>74.02849999186583</v>
       </c>
       <c r="Z5">
         <v>3827</v>
       </c>
       <c r="AA5">
-        <v>533.5654346738011</v>
+        <v>76.86563437618315</v>
       </c>
       <c r="AB5">
-        <v>1624969.355667114</v>
+        <v>1093068.872970581</v>
       </c>
       <c r="AC5">
-        <v>2620977.218414307</v>
+        <v>1990884.295761108</v>
       </c>
       <c r="AD5">
-        <v>6112.269483447075</v>
+        <v>6363.443553924561</v>
       </c>
       <c r="AE5">
-        <v>30363.78885372025</v>
+        <v>247927.3870582581</v>
       </c>
       <c r="AF5">
-        <v>15949.61959418007</v>
+        <v>162957.6340475082</v>
       </c>
       <c r="AG5">
-        <v>19013.72599191253</v>
+        <v>246119.9579257965</v>
       </c>
       <c r="AH5">
-        <v>51339.82125521523</v>
+        <v>-892214.0532722473</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>18697</v>
       </c>
       <c r="Y6">
-        <v>71.24249999411404</v>
+        <v>71.24249999527819</v>
       </c>
       <c r="Z6">
         <v>4394</v>
       </c>
       <c r="AA6">
-        <v>475.2987013868988</v>
+        <v>102.0074925157242</v>
       </c>
       <c r="AB6">
-        <v>1422043.353210449</v>
+        <v>913728.8376312256</v>
       </c>
       <c r="AC6">
-        <v>2289182.153549194</v>
+        <v>1635081.473693848</v>
       </c>
       <c r="AD6">
-        <v>4900.733019351959</v>
+        <v>4795.397600293159</v>
       </c>
       <c r="AE6">
-        <v>81163.04854823581</v>
+        <v>224591.4173336029</v>
       </c>
       <c r="AF6">
-        <v>12392.073392382</v>
+        <v>130337.7646226883</v>
       </c>
       <c r="AG6">
-        <v>75238.52000073335</v>
+        <v>203541.8605442047</v>
       </c>
       <c r="AH6">
-        <v>50475.26809034781</v>
+        <v>-705806.854927063</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>1117</v>
       </c>
       <c r="AA7">
-        <v>422.0269731003791</v>
+        <v>126.6418581479229</v>
       </c>
       <c r="AB7">
-        <v>1253268.845031738</v>
+        <v>770593.6287841797</v>
       </c>
       <c r="AC7">
-        <v>2006804.184997559</v>
+        <v>1333362.079910278</v>
       </c>
       <c r="AD7">
-        <v>4040.321929931641</v>
+        <v>3533.639358878136</v>
       </c>
       <c r="AE7">
-        <v>82370.41588852677</v>
+        <v>202579.1230840683</v>
       </c>
       <c r="AF7">
-        <v>8811.887844631725</v>
+        <v>101214.9592323303</v>
       </c>
       <c r="AG7">
-        <v>10453.77430073886</v>
+        <v>165723.4953804016</v>
       </c>
       <c r="AH7">
-        <v>84241.32572940161</v>
+        <v>-532289.8881530762</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>1915</v>
       </c>
       <c r="AA8">
-        <v>373.7502498067915</v>
+        <v>150.7687312730122</v>
       </c>
       <c r="AB8">
-        <v>1118645.831176758</v>
+        <v>663663.2464599609</v>
       </c>
       <c r="AC8">
-        <v>1773843.312698364</v>
+        <v>1085726.114379883</v>
       </c>
       <c r="AD8">
-        <v>3531.036215186119</v>
+        <v>2578.168829917908</v>
       </c>
       <c r="AE8">
-        <v>54217.20981240034</v>
+        <v>181890.5043072701</v>
       </c>
       <c r="AF8">
-        <v>23651.4687438601</v>
+        <v>75589.21787834167</v>
       </c>
       <c r="AG8">
-        <v>62198.17278140093</v>
+        <v>132664.8624305725</v>
       </c>
       <c r="AH8">
-        <v>84731.92304574368</v>
+        <v>-371663.1529464722</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>2051</v>
       </c>
       <c r="AA9">
-        <v>330.4685315135866</v>
+        <v>174.3881118907593</v>
       </c>
       <c r="AB9">
-        <v>1018174.311660767</v>
+        <v>592937.6906433105</v>
       </c>
       <c r="AC9">
-        <v>1590299.536636353</v>
+        <v>892173.5770874023</v>
       </c>
       <c r="AD9">
-        <v>3372.875875115395</v>
+        <v>1928.986013054848</v>
       </c>
       <c r="AE9">
-        <v>41482.65982118009</v>
+        <v>162525.5610046387</v>
       </c>
       <c r="AF9">
-        <v>28684.12790071268</v>
+        <v>53460.540558815</v>
       </c>
       <c r="AG9">
-        <v>38725.02201441135</v>
+        <v>104365.9616909027</v>
       </c>
       <c r="AH9">
-        <v>88503.76053915852</v>
+        <v>-223926.6493225098</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>1349</v>
       </c>
       <c r="AA10">
-        <v>292.1818182133138</v>
+        <v>197.500000005355</v>
       </c>
       <c r="AB10">
-        <v>951854.2864227295</v>
+        <v>558416.961212158</v>
       </c>
       <c r="AC10">
-        <v>1456172.856872559</v>
+        <v>752704.468307495</v>
       </c>
       <c r="AD10">
-        <v>3565.840909719467</v>
+        <v>1586.0909113884</v>
       </c>
       <c r="AE10">
-        <v>65230.40107278732</v>
+        <v>144484.293170452</v>
       </c>
       <c r="AF10">
-        <v>18385.76332440533</v>
+        <v>34828.9272823334</v>
       </c>
       <c r="AG10">
-        <v>68800.31946662927</v>
+        <v>80826.79314041141</v>
       </c>
       <c r="AH10">
-        <v>58036.32473654547</v>
+        <v>-89080.37726974487</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1596,34 +1596,34 @@
         <v>19770</v>
       </c>
       <c r="Y11">
-        <v>71.03750000195578</v>
+        <v>71.03749999916181</v>
       </c>
       <c r="Z11">
         <v>710</v>
       </c>
       <c r="AA11">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="AB11">
-        <v>717383</v>
+        <v>527962</v>
       </c>
       <c r="AC11">
-        <v>1147739</v>
+        <v>582328</v>
       </c>
       <c r="AD11">
-        <v>3596</v>
+        <v>1155</v>
       </c>
       <c r="AE11">
-        <v>65658</v>
+        <v>157667</v>
       </c>
       <c r="AF11">
-        <v>16268</v>
+        <v>3810</v>
       </c>
       <c r="AG11">
-        <v>14481</v>
+        <v>24667</v>
       </c>
       <c r="AH11">
-        <v>94274</v>
+        <v>145570</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1700,34 +1700,34 @@
         <v>16313</v>
       </c>
       <c r="Y12">
-        <v>73.74150000116788</v>
+        <v>73.74149999697693</v>
       </c>
       <c r="Z12">
         <v>1168</v>
       </c>
       <c r="AA12">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="AB12">
-        <v>907644</v>
+        <v>577771</v>
       </c>
       <c r="AC12">
-        <v>1320820</v>
+        <v>625912</v>
       </c>
       <c r="AD12">
-        <v>4953</v>
+        <v>1857</v>
       </c>
       <c r="AE12">
-        <v>70135</v>
+        <v>96007</v>
       </c>
       <c r="AF12">
-        <v>3308</v>
+        <v>2119</v>
       </c>
       <c r="AG12">
-        <v>6492</v>
+        <v>50950</v>
       </c>
       <c r="AH12">
-        <v>126229</v>
+        <v>129904</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1804,34 +1804,34 @@
         <v>16290</v>
       </c>
       <c r="Y13">
-        <v>77.36049999971874</v>
+        <v>77.36049999366514</v>
       </c>
       <c r="Z13">
         <v>862</v>
       </c>
       <c r="AA13">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="AB13">
-        <v>1061501</v>
+        <v>705357</v>
       </c>
       <c r="AC13">
-        <v>1421741</v>
+        <v>728582</v>
       </c>
       <c r="AD13">
-        <v>5359</v>
+        <v>2665</v>
       </c>
       <c r="AE13">
-        <v>44133</v>
+        <v>79906</v>
       </c>
       <c r="AF13">
-        <v>14319</v>
+        <v>11918</v>
       </c>
       <c r="AG13">
-        <v>16630</v>
+        <v>64382</v>
       </c>
       <c r="AH13">
-        <v>53959</v>
+        <v>167595</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1908,34 +1908,34 @@
         <v>16348</v>
       </c>
       <c r="Y14">
-        <v>81.8944999971427</v>
+        <v>81.89449998945929</v>
       </c>
       <c r="Z14">
         <v>899</v>
       </c>
       <c r="AA14">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="AB14">
-        <v>1274063</v>
+        <v>804196</v>
       </c>
       <c r="AC14">
-        <v>1749834</v>
+        <v>767538</v>
       </c>
       <c r="AD14">
-        <v>8407</v>
+        <v>3648</v>
       </c>
       <c r="AE14">
-        <v>39097</v>
+        <v>81987</v>
       </c>
       <c r="AF14">
-        <v>32514</v>
+        <v>4927</v>
       </c>
       <c r="AG14">
-        <v>32696</v>
+        <v>79323</v>
       </c>
       <c r="AH14">
-        <v>32021</v>
+        <v>119065</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2012,34 +2012,34 @@
         <v>18026</v>
       </c>
       <c r="Y15">
-        <v>87.34349999460392</v>
+        <v>87.34349998366088</v>
       </c>
       <c r="Z15">
         <v>3241</v>
       </c>
       <c r="AA15">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="AB15">
-        <v>1282252</v>
+        <v>936256</v>
       </c>
       <c r="AC15">
-        <v>1655056</v>
+        <v>912795</v>
       </c>
       <c r="AD15">
-        <v>10987</v>
+        <v>4363</v>
       </c>
       <c r="AE15">
-        <v>18198</v>
+        <v>45768</v>
       </c>
       <c r="AF15">
-        <v>30939</v>
+        <v>8056</v>
       </c>
       <c r="AG15">
-        <v>23964</v>
+        <v>49255</v>
       </c>
       <c r="AH15">
-        <v>46296</v>
+        <v>135182</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2116,34 +2116,34 @@
         <v>19986</v>
       </c>
       <c r="Y16">
-        <v>93.70749999047257</v>
+        <v>93.70749997720122</v>
       </c>
       <c r="Z16">
         <v>3941</v>
       </c>
       <c r="AA16">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="AB16">
-        <v>1338172</v>
+        <v>1117716</v>
       </c>
       <c r="AC16">
-        <v>1819155</v>
+        <v>1088803</v>
       </c>
       <c r="AD16">
-        <v>13930</v>
+        <v>6443</v>
       </c>
       <c r="AE16">
-        <v>24501</v>
+        <v>53598</v>
       </c>
       <c r="AF16">
-        <v>16116</v>
+        <v>7238</v>
       </c>
       <c r="AG16">
-        <v>7330</v>
+        <v>25416</v>
       </c>
       <c r="AH16">
-        <v>19265</v>
+        <v>858407</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>894.2573</v>
       </c>
       <c r="K17">
-        <v>8.366861382150091</v>
+        <v>8.366861383081414</v>
       </c>
       <c r="L17">
-        <v>0.5195053974985058</v>
+        <v>0.5195053975185147</v>
       </c>
       <c r="M17">
         <v>0.449515375417156</v>
@@ -2220,34 +2220,34 @@
         <v>20409</v>
       </c>
       <c r="Y17">
-        <v>100.9864999859128</v>
+        <v>100.9864999700803</v>
       </c>
       <c r="Z17">
         <v>2680</v>
       </c>
       <c r="AA17">
-        <v>160</v>
+        <v>344</v>
       </c>
       <c r="AB17">
-        <v>1449216.7</v>
+        <v>1379717.1</v>
       </c>
       <c r="AC17">
-        <v>1827483.7</v>
+        <v>1324120.2</v>
       </c>
       <c r="AD17">
-        <v>15553</v>
+        <v>7452</v>
       </c>
       <c r="AE17">
-        <v>24037</v>
+        <v>97962</v>
       </c>
       <c r="AF17">
-        <v>4908</v>
+        <v>8449</v>
       </c>
       <c r="AG17">
-        <v>4779</v>
+        <v>18473</v>
       </c>
       <c r="AH17">
-        <v>48950</v>
+        <v>653190</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>971.1</v>
       </c>
       <c r="K18">
-        <v>8.428590171271935</v>
+        <v>8.428590172377881</v>
       </c>
       <c r="L18">
-        <v>0.5226613426766562</v>
+        <v>0.5226613426984841</v>
       </c>
       <c r="M18">
         <v>0.339750433523756</v>
@@ -2312,46 +2312,46 @@
         <v>312588</v>
       </c>
       <c r="U18">
-        <v>0.6670109890045524</v>
+        <v>0.6670109889888636</v>
       </c>
       <c r="V18">
         <v>95.2</v>
       </c>
       <c r="W18">
-        <v>95.52778021479025</v>
+        <v>95.52778021548875</v>
       </c>
       <c r="X18">
         <v>21530</v>
       </c>
       <c r="Y18">
-        <v>109.1804999802262</v>
+        <v>109.1804999615997</v>
       </c>
       <c r="Z18">
         <v>3183</v>
       </c>
       <c r="AA18">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="AB18">
-        <v>1273159.3</v>
+        <v>1688790</v>
       </c>
       <c r="AC18">
-        <v>1833865.1</v>
+        <v>1663997.5</v>
       </c>
       <c r="AD18">
-        <v>16204</v>
+        <v>9614</v>
       </c>
       <c r="AE18">
-        <v>107435.1</v>
+        <v>82335.7</v>
       </c>
       <c r="AF18">
-        <v>34773.9</v>
+        <v>10577.9</v>
       </c>
       <c r="AG18">
-        <v>91794.10000000001</v>
+        <v>78928.39999999999</v>
       </c>
       <c r="AH18">
-        <v>46715.4</v>
+        <v>627210.4</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="E19">
-        <v>52621.55535778403</v>
+        <v>52621.55535821617</v>
       </c>
       <c r="F19">
         <v>48271.5741</v>
@@ -2386,10 +2386,10 @@
         <v>1041.8</v>
       </c>
       <c r="K19">
-        <v>8.675161656516138</v>
+        <v>8.675161657738499</v>
       </c>
       <c r="L19">
-        <v>0.5313788970179303</v>
+        <v>0.5313788970433961</v>
       </c>
       <c r="M19">
         <v>0.197010534834985</v>
@@ -2416,46 +2416,46 @@
         <v>133534</v>
       </c>
       <c r="U19">
-        <v>0.6352472527380542</v>
+        <v>0.6352472527171358</v>
       </c>
       <c r="V19">
         <v>96.3</v>
       </c>
       <c r="W19">
-        <v>92.89662636793219</v>
+        <v>92.89662636839785</v>
       </c>
       <c r="X19">
         <v>81682</v>
       </c>
       <c r="Y19">
-        <v>118.2894999738783</v>
+        <v>118.289499952225</v>
       </c>
       <c r="Z19">
         <v>5003</v>
       </c>
       <c r="AA19">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="AB19">
-        <v>1635418.6</v>
+        <v>1780050.9</v>
       </c>
       <c r="AC19">
-        <v>2233343.2</v>
+        <v>1807635.8</v>
       </c>
       <c r="AD19">
-        <v>20036</v>
+        <v>12064</v>
       </c>
       <c r="AE19">
-        <v>111063.3</v>
+        <v>38205.7</v>
       </c>
       <c r="AF19">
-        <v>47119.7</v>
+        <v>10059.1</v>
       </c>
       <c r="AG19">
-        <v>127663.1</v>
+        <v>40908.5</v>
       </c>
       <c r="AH19">
-        <v>120472.5</v>
+        <v>491154.5</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>73.40000000000001</v>
       </c>
       <c r="E20">
-        <v>54553.72048419714</v>
+        <v>54553.72048474848</v>
       </c>
       <c r="F20">
         <v>44839.3237</v>
@@ -2490,10 +2490,10 @@
         <v>1133.2563</v>
       </c>
       <c r="K20">
-        <v>9.106575837824494</v>
+        <v>9.106575839105062</v>
       </c>
       <c r="L20">
-        <v>0.545658060529604</v>
+        <v>0.5456580605550698</v>
       </c>
       <c r="M20">
         <v>0.140592208178792</v>
@@ -2520,46 +2520,46 @@
         <v>174083</v>
       </c>
       <c r="U20">
-        <v>0.6030617323730212</v>
+        <v>0.6030617323463048</v>
       </c>
       <c r="V20">
         <v>96.7</v>
       </c>
       <c r="W20">
-        <v>89.274832572788</v>
+        <v>89.27483257325366</v>
       </c>
       <c r="X20">
         <v>56067</v>
       </c>
       <c r="Y20">
-        <v>128.3134999668691</v>
+        <v>128.3134999419563</v>
       </c>
       <c r="Z20">
         <v>5444</v>
       </c>
       <c r="AA20">
-        <v>184</v>
+        <v>398</v>
       </c>
       <c r="AB20">
-        <v>2135321</v>
+        <v>2006348</v>
       </c>
       <c r="AC20">
-        <v>2628348</v>
+        <v>2086663</v>
       </c>
       <c r="AD20">
-        <v>23884</v>
+        <v>15120</v>
       </c>
       <c r="AE20">
-        <v>3892</v>
+        <v>19435</v>
       </c>
       <c r="AF20">
-        <v>21296</v>
+        <v>14093</v>
       </c>
       <c r="AG20">
-        <v>16191</v>
+        <v>95521</v>
       </c>
       <c r="AH20">
-        <v>86004</v>
+        <v>308335</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>73.2747</v>
       </c>
       <c r="E21">
-        <v>56430.46719326079</v>
+        <v>56430.46719397604</v>
       </c>
       <c r="F21">
         <v>51294.6</v>
@@ -2594,25 +2594,25 @@
         <v>1184.146</v>
       </c>
       <c r="K21">
-        <v>9.722832715080585</v>
+        <v>9.722832716477569</v>
       </c>
       <c r="L21">
-        <v>0.5654988332044013</v>
+        <v>0.5654988332371431</v>
       </c>
       <c r="M21">
         <v>0.133426356912034</v>
       </c>
       <c r="N21">
-        <v>249.9215686060488</v>
+        <v>249.9215686284006</v>
       </c>
       <c r="O21">
-        <v>112.0840931278653</v>
+        <v>112.0840931315906</v>
       </c>
       <c r="P21">
         <v>2831.1</v>
       </c>
       <c r="Q21">
-        <v>100.3682843139104</v>
+        <v>100.3682843138922</v>
       </c>
       <c r="R21">
         <v>37.3</v>
@@ -2621,49 +2621,49 @@
         <v>603157</v>
       </c>
       <c r="T21">
-        <v>177215.7491861554</v>
+        <v>212926.2670362815</v>
       </c>
       <c r="U21">
-        <v>0.5704544279094534</v>
+        <v>0.5704544278762569</v>
       </c>
       <c r="V21">
         <v>96.90000000000001</v>
       </c>
       <c r="W21">
-        <v>84.6623988293577</v>
+        <v>84.66239882982336</v>
       </c>
       <c r="X21">
-        <v>61974.76224732399</v>
+        <v>61974.76224327087</v>
       </c>
       <c r="Y21">
-        <v>139.2524999589659</v>
+        <v>139.2524999305606</v>
       </c>
       <c r="Z21">
-        <v>8038.941176354885</v>
+        <v>8038.941178321838</v>
       </c>
       <c r="AA21">
-        <v>198</v>
+        <v>424</v>
       </c>
       <c r="AB21">
-        <v>2806421</v>
+        <v>2589867</v>
       </c>
       <c r="AC21">
-        <v>3656095</v>
+        <v>2770364</v>
       </c>
       <c r="AD21">
-        <v>26491</v>
+        <v>17417</v>
       </c>
       <c r="AE21">
-        <v>2547</v>
+        <v>17099</v>
       </c>
       <c r="AF21">
-        <v>11729</v>
+        <v>18111</v>
       </c>
       <c r="AG21">
-        <v>14757</v>
+        <v>152872</v>
       </c>
       <c r="AH21">
-        <v>67649</v>
+        <v>460781</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="E22">
-        <v>58251.79548503458</v>
+        <v>58251.79548588395</v>
       </c>
       <c r="F22">
         <v>48110.5487</v>
@@ -2692,82 +2692,82 @@
         <v>89.33</v>
       </c>
       <c r="I22">
-        <v>3.303789286534993</v>
+        <v>3.30378928656819</v>
       </c>
       <c r="J22">
-        <v>1367.193797344342</v>
+        <v>1367.193797331303</v>
       </c>
       <c r="K22">
-        <v>10.52393228840083</v>
+        <v>10.52393228991423</v>
       </c>
       <c r="L22">
-        <v>0.5909012150495982</v>
+        <v>0.5909012150823401</v>
       </c>
       <c r="M22">
-        <v>2.465518608689308</v>
+        <v>2.465518614044413</v>
       </c>
       <c r="N22">
-        <v>269.5664602462202</v>
+        <v>269.5664602695033</v>
       </c>
       <c r="O22">
-        <v>131.139255664777</v>
+        <v>131.1392556685023</v>
       </c>
       <c r="P22">
-        <v>3084.836317975142</v>
+        <v>2527.008808840582</v>
       </c>
       <c r="Q22">
-        <v>101.2218498454276</v>
+        <v>101.221849845424</v>
       </c>
       <c r="R22">
-        <v>43.40588234760799</v>
+        <v>43.40588236693293</v>
       </c>
       <c r="S22">
         <v>543533</v>
       </c>
       <c r="T22">
-        <v>158484.3482498986</v>
+        <v>120683.1386999285</v>
       </c>
       <c r="U22">
-        <v>0.5374253393472372</v>
+        <v>0.5374253393069921</v>
       </c>
       <c r="V22">
-        <v>100.0752115595678</v>
+        <v>100.0752115594878</v>
       </c>
       <c r="W22">
-        <v>79.05932513717562</v>
+        <v>79.05932513787411</v>
       </c>
       <c r="X22">
-        <v>70502.33835530281</v>
+        <v>70502.33835077286</v>
       </c>
       <c r="Y22">
-        <v>151.1064999501687</v>
+        <v>151.1064999182709</v>
       </c>
       <c r="Z22">
-        <v>9810.926470458508</v>
+        <v>9810.92647254467</v>
       </c>
       <c r="AA22">
-        <v>231</v>
+        <v>428</v>
       </c>
       <c r="AB22">
-        <v>2799881.8</v>
+        <v>3072912.5</v>
       </c>
       <c r="AC22">
-        <v>3706536.3</v>
+        <v>3481492.5</v>
       </c>
       <c r="AD22">
-        <v>36251</v>
+        <v>21978</v>
       </c>
       <c r="AE22">
-        <v>100652</v>
+        <v>38440.1</v>
       </c>
       <c r="AF22">
-        <v>5119.8</v>
+        <v>138254.6</v>
       </c>
       <c r="AG22">
-        <v>135732.2</v>
+        <v>185713</v>
       </c>
       <c r="AH22">
-        <v>52913.2</v>
+        <v>660606.5</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2778,100 +2778,100 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>192789.126316309</v>
+        <v>192789.12631464</v>
       </c>
       <c r="D23">
         <v>75.2</v>
       </c>
       <c r="E23">
-        <v>60017.70535950363</v>
+        <v>60017.705360502</v>
       </c>
       <c r="F23">
-        <v>55201.01419810951</v>
+        <v>55201.01419778168</v>
       </c>
       <c r="G23">
         <v>-2.42</v>
       </c>
       <c r="H23">
-        <v>88.49147608777565</v>
+        <v>84.84305159944803</v>
       </c>
       <c r="I23">
-        <v>3.242849340418161</v>
+        <v>3.242849340465</v>
       </c>
       <c r="J23">
-        <v>1495.783689787611</v>
+        <v>1495.783689776435</v>
       </c>
       <c r="K23">
-        <v>11.50987455772702</v>
+        <v>11.50987455935683</v>
       </c>
       <c r="L23">
-        <v>0.6218652060579188</v>
+        <v>0.6218652060942986</v>
       </c>
       <c r="M23">
-        <v>4.424232921563089</v>
+        <v>4.424232926918194</v>
       </c>
       <c r="N23">
-        <v>291.5469556013122</v>
+        <v>291.5469556255266</v>
       </c>
       <c r="O23">
-        <v>151.6503121638671</v>
+        <v>151.6503121685237</v>
       </c>
       <c r="P23">
-        <v>2887.175256393301</v>
+        <v>2699.925797113606</v>
       </c>
       <c r="Q23">
-        <v>102.0873632613693</v>
+        <v>102.0873632613657</v>
       </c>
       <c r="R23">
-        <v>49.8747548952233</v>
+        <v>49.87475491710939</v>
       </c>
       <c r="S23">
-        <v>612631.0346431732</v>
+        <v>612631.0346589088</v>
       </c>
       <c r="T23">
-        <v>194415.7316017927</v>
+        <v>207767.8466566907</v>
       </c>
       <c r="U23">
-        <v>0.5039744666867136</v>
+        <v>0.5039744666386241</v>
       </c>
       <c r="V23">
-        <v>101.2923364309972</v>
+        <v>101.2923364308517</v>
       </c>
       <c r="W23">
         <v>72.46561149717309</v>
       </c>
       <c r="X23">
-        <v>79717.59673929214</v>
+        <v>79717.59673428535</v>
       </c>
       <c r="Y23">
-        <v>163.8754999407101</v>
+        <v>163.8754999048542</v>
       </c>
       <c r="Z23">
-        <v>11776.45536619425</v>
+        <v>11776.45536851883</v>
       </c>
       <c r="AA23">
-        <v>249.0000000242144</v>
+        <v>451.7727272799239</v>
       </c>
       <c r="AB23">
-        <v>3197479.941146851</v>
+        <v>3404286.6927948</v>
       </c>
       <c r="AC23">
-        <v>4209481.77986145</v>
+        <v>3861198.022476196</v>
       </c>
       <c r="AD23">
-        <v>38026.7954556942</v>
+        <v>25000.63636350632</v>
       </c>
       <c r="AE23">
-        <v>50112.34257887973</v>
+        <v>30402.27953052521</v>
       </c>
       <c r="AF23">
-        <v>15634.41487681682</v>
+        <v>110850.7817907333</v>
       </c>
       <c r="AG23">
-        <v>16578.83221199452</v>
+        <v>207953.2340297699</v>
       </c>
       <c r="AH23">
-        <v>69620.58355819869</v>
+        <v>490910.0862197876</v>
       </c>
     </row>
   </sheetData>
